--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F226CA95-7CDE-40F1-9F5A-10F00A71E33C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
     <sheet name="DataBase" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Submission Date</t>
   </si>
@@ -53,35 +62,40 @@
     <t>Brief description of planned purchases</t>
   </si>
   <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>https://github.com/publicusername/SensorEffector</t>
-  </si>
-  <si>
     <t>Project repository</t>
   </si>
   <si>
     <t>Student Names</t>
   </si>
   <si>
-    <t>FirstA LastA, FirstB LastB, and FirstC LastC</t>
-  </si>
-  <si>
-    <t>IoT for SensorsEffectors</t>
-  </si>
-  <si>
     <t>SensorsEffectors choices</t>
+  </si>
+  <si>
+    <t>L-wing Solar Panel interactive Display</t>
+  </si>
+  <si>
+    <t>June Patrick Dacaya, Nicholas Phillip</t>
+  </si>
+  <si>
+    <t>https://github.com/junedacaya/L-wingSolarPanelInteractiveDisplay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,10 +118,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -115,8 +130,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,6 +230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -243,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,8 +492,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
+      <c r="B1" s="3">
+        <v>43718</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,12 +501,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -458,15 +514,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -520,14 +576,17 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{3F0982B3-6E76-4ED0-8039-16EAF85B23A6}"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -602,21 +661,21 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="2">
         <f>DataEntry!B1</f>
-        <v>YYYY-MM-DD</v>
+        <v>43718</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>DataEntry!B2</f>
-        <v>IoT for SensorsEffectors</v>
+        <v>L-wing Solar Panel interactive Display</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
-        <v>FirstA LastA, FirstB LastB, and FirstC LastC</v>
+        <v>June Patrick Dacaya, Nicholas Phillip</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>DataEntry!B4</f>
-        <v>https://github.com/publicusername/SensorEffector</v>
+        <v>https://github.com/junedacaya/L-wingSolarPanelInteractiveDisplay</v>
       </c>
       <c r="E2" s="2">
         <f>DataEntry!B5</f>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F226CA95-7CDE-40F1-9F5A-10F00A71E33C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6F438-54FA-4416-8885-F64869463385}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Submission Date</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>https://github.com/junedacaya/L-wingSolarPanelInteractiveDisplay</t>
+  </si>
+  <si>
+    <t>Energy collected by the solar panels, weather at that time, total energy collected every 30 minutes</t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t>Interactive display of power collection from the 4 solar panels. Choose from a sile panel display or multi-screen panel display. Access to the database information through the internet.</t>
+  </si>
+  <si>
+    <t>Humber College Institute of Technology &amp; Advanced Learning Computer Engineering Technology Capstones.Specifically from Sustainable Energy and Building Technology program  at Humber College.</t>
   </si>
 </sst>
 </file>
@@ -130,11 +142,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +504,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>43718</v>
       </c>
     </row>
@@ -516,7 +528,7 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -524,20 +536,32 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -677,21 +701,21 @@
         <f>DataEntry!B4</f>
         <v>https://github.com/junedacaya/L-wingSolarPanelInteractiveDisplay</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="str">
         <f>DataEntry!B5</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+        <v>BME280</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <f>DataEntry!B6</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+        <v>Energy collected by the solar panels, weather at that time, total energy collected every 30 minutes</v>
+      </c>
+      <c r="G2" s="2" t="str">
         <f>DataEntry!B7</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+        <v>Interactive display of power collection from the 4 solar panels. Choose from a sile panel display or multi-screen panel display. Access to the database information through the internet.</v>
+      </c>
+      <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
-        <v>0</v>
+        <v>Humber College Institute of Technology &amp; Advanced Learning Computer Engineering Technology Capstones.Specifically from Sustainable Energy and Building Technology program  at Humber College.</v>
       </c>
       <c r="I2" s="2">
         <f>DataEntry!B9</f>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6F438-54FA-4416-8885-F64869463385}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
     <sheet name="DataBase" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Submission Date</t>
   </si>
@@ -86,16 +85,22 @@
     <t>BME280</t>
   </si>
   <si>
-    <t>Interactive display of power collection from the 4 solar panels. Choose from a sile panel display or multi-screen panel display. Access to the database information through the internet.</t>
-  </si>
-  <si>
     <t>Humber College Institute of Technology &amp; Advanced Learning Computer Engineering Technology Capstones.Specifically from Sustainable Energy and Building Technology program  at Humber College.</t>
+  </si>
+  <si>
+    <t>Interactive display of power collection from the 4 solar panels. Choose from a single panel display or multi-screen panel display. Access to the database information through the internet.</t>
+  </si>
+  <si>
+    <t>The problem is to create a mobile app and a hardware, to track the solar panel activity. Track its total energy collected every 30 minutes and save it in a database. This information is accessible from anywhere in the globe through the mobile app.</t>
+  </si>
+  <si>
+    <t>By creating the mobile app and the hardware, people from the Sustainable Energy and Building Technology program will have an interactive GUI that tracks the solar panel activity. The current weather, how bright the sun or is it cloudy, the total and current energy it is collecting will be stored in a database and will be available on the mobile app.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,23 +247,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,23 +282,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,11 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -561,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -569,14 +540,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -601,7 +578,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{3F0982B3-6E76-4ED0-8039-16EAF85B23A6}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -610,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -711,7 +688,7 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>DataEntry!B7</f>
-        <v>Interactive display of power collection from the 4 solar panels. Choose from a sile panel display or multi-screen panel display. Access to the database information through the internet.</v>
+        <v>Interactive display of power collection from the 4 solar panels. Choose from a single panel display or multi-screen panel display. Access to the database information through the internet.</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
@@ -721,13 +698,13 @@
         <f>DataEntry!B9</f>
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+        <v>The problem is to create a mobile app and a hardware, to track the solar panel activity. Track its total energy collected every 30 minutes and save it in a database. This information is accessible from anywhere in the globe through the mobile app.</v>
+      </c>
+      <c r="K2" s="2" t="str">
         <f>DataEntry!B11</f>
-        <v>0</v>
+        <v>By creating the mobile app and the hardware, people from the Sustainable Energy and Building Technology program will have an interactive GUI that tracks the solar panel activity. The current weather, how bright the sun or is it cloudy, the total and current energy it is collecting will be stored in a database and will be available on the mobile app.</v>
       </c>
       <c r="L2" s="2">
         <f>DataEntry!B12</f>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -10,7 +10,7 @@
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
     <sheet name="DataBase" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Submission Date</t>
   </si>
@@ -91,16 +91,25 @@
     <t>Interactive display of power collection from the 4 solar panels. Choose from a single panel display or multi-screen panel display. Access to the database information through the internet.</t>
   </si>
   <si>
-    <t>The problem is to create a mobile app and a hardware, to track the solar panel activity. Track its total energy collected every 30 minutes and save it in a database. This information is accessible from anywhere in the globe through the mobile app.</t>
-  </si>
-  <si>
-    <t>By creating the mobile app and the hardware, people from the Sustainable Energy and Building Technology program will have an interactive GUI that tracks the solar panel activity. The current weather, how bright the sun or is it cloudy, the total and current energy it is collecting will be stored in a database and will be available on the mobile app.</t>
+    <t xml:space="preserve">The problem is to create a mobile app and a hardware, to track the solar panel activity as well as improve solar poer harvesting. Track its total energy collected every 30 minutes and save it in a database. This information is accessible from anywhere in the globe through the mobile app. </t>
+  </si>
+  <si>
+    <t>By creating the mobile app and the hardware, people from the Sustainable Energy and Building Technology program will have an interactive GUI that tracks the solar panel activity. The current weather, how bright the sun or is it cloudy, the total and current energy it is collecting will be stored in a database and will be available on the mobile app. I will try to create a hardware prototype that will be controlled by the app or view information from. The prototype will try to guide the panel to the best angle for maximizing solar power harvesting.</t>
+  </si>
+  <si>
+    <t>By using the app, users will have the ability to track the solar panels activity. Creating the hardware like photosensors, motors to move the solar panel prototype and temperature on the area will improve solar power harvesting.</t>
+  </si>
+  <si>
+    <t>I am not sure if I can have the same group members during the winter semester because my team member at CENG319 right now doesn’t have CENG317.</t>
+  </si>
+  <si>
+    <t>Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +470,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +548,9 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -548,7 +560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -570,10 +582,16 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -694,17 +712,17 @@
         <f>DataEntry!B8</f>
         <v>Humber College Institute of Technology &amp; Advanced Learning Computer Engineering Technology Capstones.Specifically from Sustainable Energy and Building Technology program  at Humber College.</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
-        <v>0</v>
+        <v>I am not sure if I can have the same group members during the winter semester because my team member at CENG319 right now doesn’t have CENG317.</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>
-        <v>The problem is to create a mobile app and a hardware, to track the solar panel activity. Track its total energy collected every 30 minutes and save it in a database. This information is accessible from anywhere in the globe through the mobile app.</v>
+        <v xml:space="preserve">The problem is to create a mobile app and a hardware, to track the solar panel activity as well as improve solar poer harvesting. Track its total energy collected every 30 minutes and save it in a database. This information is accessible from anywhere in the globe through the mobile app. </v>
       </c>
       <c r="K2" s="2" t="str">
         <f>DataEntry!B11</f>
-        <v>By creating the mobile app and the hardware, people from the Sustainable Energy and Building Technology program will have an interactive GUI that tracks the solar panel activity. The current weather, how bright the sun or is it cloudy, the total and current energy it is collecting will be stored in a database and will be available on the mobile app.</v>
+        <v>By creating the mobile app and the hardware, people from the Sustainable Energy and Building Technology program will have an interactive GUI that tracks the solar panel activity. The current weather, how bright the sun or is it cloudy, the total and current energy it is collecting will be stored in a database and will be available on the mobile app. I will try to create a hardware prototype that will be controlled by the app or view information from. The prototype will try to guide the panel to the best angle for maximizing solar power harvesting.</v>
       </c>
       <c r="L2" s="2">
         <f>DataEntry!B12</f>
@@ -714,13 +732,13 @@
         <f>DataEntry!B13</f>
         <v>0</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
+        <v>Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors.</v>
+      </c>
+      <c r="O2" s="2" t="str">
         <f>DataEntry!B15</f>
-        <v>0</v>
+        <v>By using the app, users will have the ability to track the solar panels activity. Creating the hardware like photosensors, motors to move the solar panel prototype and temperature on the area will improve solar power harvesting.</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Submission Date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors.</t>
+  </si>
+  <si>
+    <t>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893.</t>
   </si>
 </sst>
 </file>
@@ -469,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,9 +576,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -679,7 +685,7 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>DataEntry!B1</f>
         <v>43718</v>
@@ -728,9 +734,9 @@
         <f>DataEntry!B12</f>
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
-        <v>0</v>
+        <v>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893.</v>
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -103,10 +103,10 @@
     <t>I am not sure if I can have the same group members during the winter semester because my team member at CENG319 right now doesn’t have CENG317.</t>
   </si>
   <si>
-    <t>Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors.</t>
-  </si>
-  <si>
     <t>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors. </t>
   </si>
 </sst>
 </file>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
-        <v>Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors.</v>
+        <v xml:space="preserve">Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors. </v>
       </c>
       <c r="O2" s="2" t="str">
         <f>DataEntry!B15</f>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -10,7 +10,7 @@
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
     <sheet name="DataBase" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Submission Date</t>
   </si>
@@ -103,10 +103,13 @@
     <t>I am not sure if I can have the same group members during the winter semester because my team member at CENG319 right now doesn’t have CENG317.</t>
   </si>
   <si>
-    <t>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan to purchase Raspberry Pi, voltage sensor, photodiodes and motors. </t>
+  </si>
+  <si>
+    <t>B. Steindl, R. Enne, S. Schidl and H. Zimmermann, "Linear Mode Avalanche Photodiode With High Responsivity Integrated in High-Voltage CMOS," in IEEE Electron Device Letters, vol. 35, no. 9, pp. 897-899, Sept. 2014. URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=6866114&amp;isnumber=6881771</t>
+  </si>
+  <si>
+    <t>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893. URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7960118&amp;isnumber=7959951</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,17 +574,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -589,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -730,13 +736,13 @@
         <f>DataEntry!B11</f>
         <v>By creating the mobile app and the hardware, people from the Sustainable Energy and Building Technology program will have an interactive GUI that tracks the solar panel activity. The current weather, how bright the sun or is it cloudy, the total and current energy it is collecting will be stored in a database and will be available on the mobile app. I will try to create a hardware prototype that will be controlled by the app or view information from. The prototype will try to guide the panel to the best angle for maximizing solar power harvesting.</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="2" t="str">
         <f>DataEntry!B12</f>
-        <v>0</v>
+        <v>B. Steindl, R. Enne, S. Schidl and H. Zimmermann, "Linear Mode Avalanche Photodiode With High Responsivity Integrated in High-Voltage CMOS," in IEEE Electron Device Letters, vol. 35, no. 9, pp. 897-899, Sept. 2014. URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=6866114&amp;isnumber=6881771</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
-        <v>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893.</v>
+        <v>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893. URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7960118&amp;isnumber=7959951</v>
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>

--- a/documentation/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/ProposalContentStudentNameRev03.xlsx
@@ -82,9 +82,6 @@
     <t>Energy collected by the solar panels, weather at that time, total energy collected every 30 minutes</t>
   </si>
   <si>
-    <t>BME280</t>
-  </si>
-  <si>
     <t>Humber College Institute of Technology &amp; Advanced Learning Computer Engineering Technology Capstones.Specifically from Sustainable Energy and Building Technology program  at Humber College.</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>W. Hong-bin, Z. Zhe, C. Xu-hui and W. Yuan-bin, "Stepper motor SPWM subdivision control circuit design based on FPGA," 2017 IEEE/ACIS 16th International Conference on Computer and Information Science (ICIS), Wuhan, 2017, pp. 889-893. URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7960118&amp;isnumber=7959951</t>
+  </si>
+  <si>
+    <t>BME280, photodiodes, stepper motor</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +710,7 @@
       </c>
       <c r="E2" s="2" t="str">
         <f>DataEntry!B5</f>
-        <v>BME280</v>
+        <v>BME280, photodiodes, stepper motor</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>DataEntry!B6</f>
